--- a/Interrogaciones/src/excel_horarios/parametros_2024.xlsx
+++ b/Interrogaciones/src/excel_horarios/parametros_2024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fechas" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="55">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -82,18 +82,63 @@
     <t xml:space="preserve">IIQ1003</t>
   </si>
   <si>
+    <t xml:space="preserve">MAT1107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAT1203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAT1207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAT1610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAT1620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAT1630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAT1640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAT251I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAT253I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAT255I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAT2605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAT380I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EYP1025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EYP1113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EYP2114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EYP211I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EYP230I</t>
+  </si>
+  <si>
     <t xml:space="preserve">Curso</t>
   </si>
   <si>
     <t xml:space="preserve">N° Interrogación</t>
   </si>
   <si>
-    <t xml:space="preserve">EYP1113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EYP2114</t>
-  </si>
-  <si>
     <t xml:space="preserve">FIS1514</t>
   </si>
   <si>
@@ -133,34 +178,7 @@
     <t xml:space="preserve">IIC3745</t>
   </si>
   <si>
-    <t xml:space="preserve">MAT1107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAT1203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAT1207</t>
-  </si>
-  <si>
     <t xml:space="preserve">MAT1605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAT1610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAT1620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAT1630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAT1640</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAT251I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAT253I</t>
   </si>
   <si>
     <t xml:space="preserve">QIM100E</t>
@@ -176,11 +194,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="d\-mmm"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -224,13 +243,21 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF843C0B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -288,7 +315,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -321,7 +348,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -405,7 +440,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF843C0B"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -424,8 +459,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A37" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:A37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A36" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:A36"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Cursos Coordinados"/>
   </tableColumns>
@@ -448,8 +483,8 @@
   </sheetPr>
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A96" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B114" activeCellId="0" sqref="B114"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B73" activeCellId="0" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -478,13 +513,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <v>45509</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="D2" s="4" t="n">
         <v>45540</v>
       </c>
@@ -495,292 +533,400 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
         <v>45510</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
         <v>45511</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
         <v>45512</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
         <v>45513</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
         <v>45514</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
         <v>45515</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <v>45516</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
         <v>45517</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <v>45518</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
         <v>45519</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
         <v>45520</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
         <v>45521</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
         <v>45522</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
         <v>45523</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
         <v>45524</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
         <v>45525</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
         <v>45526</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
         <v>45527</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
         <v>45528</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
         <v>45529</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
         <v>45530</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
         <v>45531</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
         <v>45532</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
         <v>45533</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="n">
         <v>45534</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
         <v>45535</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="n">
         <v>45536</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
         <v>45537</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="n">
         <v>45538</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
         <v>45539</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="n">
         <v>45540</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="0" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="n">
         <v>45541</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="n">
         <v>45542</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="n">
         <v>45543</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="n">
         <v>45544</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="n">
         <v>45545</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="39" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -790,237 +936,327 @@
       <c r="B39" s="6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="0" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="n">
         <v>45547</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="0" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="n">
         <v>45548</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="0" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="n">
         <v>45549</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="n">
         <v>45550</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="0" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="n">
         <v>45551</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="0" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="n">
         <v>45552</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="0" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="n">
         <v>45553</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="0" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="n">
         <v>45554</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="0" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="n">
         <v>45555</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="0" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="n">
         <v>45556</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="0" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="n">
         <v>45557</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="0" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="n">
         <v>45558</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="0" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="n">
         <v>45559</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="n">
         <v>45560</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="0" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="n">
         <v>45561</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="0" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="n">
         <v>45562</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="0" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="n">
         <v>45563</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="0" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="n">
         <v>45564</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="0" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="n">
         <v>45565</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="0" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="n">
         <v>45566</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="0" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="n">
         <v>45567</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="0" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="n">
         <v>45568</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="0" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="n">
         <v>45569</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="n">
         <v>45570</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="0" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="n">
         <v>45571</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="0" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="n">
         <v>45572</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="0" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="n">
         <v>45573</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="0" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="n">
         <v>45574</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="0" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="n">
         <v>45575</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="69" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1030,21 +1266,30 @@
       <c r="B69" s="6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="0" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="n">
         <v>45577</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="0" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="n">
         <v>45578</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="72" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1052,31 +1297,43 @@
         <v>45579</v>
       </c>
       <c r="B72" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="n">
         <v>45580</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="0" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="n">
         <v>45581</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="0" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="n">
         <v>45582</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="76" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1086,6 +1343,9 @@
       <c r="B76" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C76" s="0" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="n">
@@ -1094,269 +1354,371 @@
       <c r="B77" s="6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="n">
         <v>45585</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="0" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="n">
         <v>45586</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="0" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="n">
         <v>45587</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="0" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="n">
         <v>45588</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="0" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="n">
         <v>45589</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="n">
         <v>45590</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="0" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="n">
         <v>45591</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="0" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="n">
         <v>45592</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="0" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="n">
         <v>45593</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="0" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="n">
         <v>45594</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="n">
         <v>45595</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C88" s="0" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="n">
         <v>45596</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="0" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="n">
         <v>45597</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="0" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="n">
         <v>45598</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="0" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="n">
         <v>45599</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="n">
         <v>45600</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C93" s="0" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="n">
         <v>45601</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="0" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="n">
         <v>45602</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="0" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="n">
         <v>45603</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C96" s="0" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="n">
         <v>45604</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="0" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="n">
         <v>45605</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C98" s="0" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="n">
         <v>45606</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="0" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="n">
         <v>45607</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="0" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="n">
         <v>45608</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C101" s="0" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="n">
         <v>45609</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="n">
         <v>45610</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C103" s="0" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="n">
         <v>45611</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="0" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="n">
         <v>45612</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="0" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="n">
         <v>45613</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="0" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="n">
         <v>45614</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C107" s="0" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="n">
         <v>45615</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="0" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="n">
         <v>45616</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="0" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="n">
         <v>45617</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="111" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1366,21 +1728,30 @@
       <c r="B111" s="6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="0" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="n">
         <v>45619</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C112" s="0" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="n">
         <v>45620</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1390,6 +1761,9 @@
       <c r="B114" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C114" s="0" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="n">
@@ -1398,6 +1772,9 @@
       <c r="B115" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C115" s="0" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="n">
@@ -1406,6 +1783,9 @@
       <c r="B116" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C116" s="0" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="n">
@@ -1414,6 +1794,9 @@
       <c r="B117" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C117" s="0" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="n">
@@ -1421,6 +1804,9 @@
       </c>
       <c r="B118" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1457,10 +1843,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:A1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1538,29 +1924,97 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1580,29 +2034,605 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="10.49"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="10" t="n">
+        <v>45537</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="10" t="n">
+        <v>45537</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>45537</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>45537</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="10" t="n">
+        <v>45537</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B7" s="10" t="n">
+        <v>45537</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="B8" s="10" t="n">
+        <v>45538</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="10" t="n">
+        <v>45538</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>45539</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>45539</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>45540</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>45540</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>45540</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>45540</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>45545</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>45547</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>45547</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>45572</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>45572</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>45572</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>45572</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>45573</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="n">
+        <v>45573</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>45573</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>45573</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="10" t="n">
+        <v>45574</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="10" t="n">
+        <v>45574</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="10" t="n">
+        <v>45575</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="10" t="n">
+        <v>45575</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="10" t="n">
+        <v>45575</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="10" t="n">
+        <v>45580</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="10" t="n">
+        <v>45580</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="10" t="n">
+        <v>45581</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="10" t="n">
+        <v>45600</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="10" t="n">
+        <v>45600</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="10" t="n">
+        <v>45600</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="10" t="n">
+        <v>45600</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="10" t="n">
+        <v>45600</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="10" t="n">
+        <v>45600</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="10" t="n">
+        <v>45601</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="10" t="n">
+        <v>45601</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="10" t="n">
+        <v>45602</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="10" t="n">
+        <v>45602</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="10" t="n">
+        <v>45603</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="10" t="n">
+        <v>45603</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="10" t="n">
+        <v>45603</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="10" t="n">
+        <v>45607</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="10" t="n">
+        <v>45608</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="10" t="n">
+        <v>45608</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="10" t="n">
+        <v>45609</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1625,7 +2655,7 @@
   <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1637,32 +2667,32 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1672,17 +2702,17 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1692,12 +2722,12 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1712,17 +2742,17 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1742,7 +2772,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1752,67 +2782,67 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
